--- a/medicine/Mort/Cimetière_du_Djellaz/Cimetière_du_Djellaz.xlsx
+++ b/medicine/Mort/Cimetière_du_Djellaz/Cimetière_du_Djellaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Djellaz</t>
+          <t>Cimetière_du_Djellaz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Djellaz ou cimetière du Jellaz est le principal cimetière de Tunis, capitale de la Tunisie, pour ce qui est de la superficie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Djellaz ou cimetière du Jellaz est le principal cimetière de Tunis, capitale de la Tunisie, pour ce qui est de la superficie.
 On y trouve plusieurs bâtiments religieux imposants comme les zaouïas de Sidi Belhassen Chedly et de Sidi El Béchir, en bas du cimetière, ou le mausolée de Moncef Bey, désireux de reposer selon ses propres dires au milieu de son peuple.
-En novembre 1911, le cimetière se retrouve au centre d'une émeute sanglante entre les forces de l'ordre françaises et des manifestants tunisiens qui mène à un procès retentissant, un épisode marquant du mouvement national. Cette affaire a pour origine la décision de la municipalité d'immatriculer le cimetière à son nom alors qu'il appartient à l'administration des habous[2].   
+En novembre 1911, le cimetière se retrouve au centre d'une émeute sanglante entre les forces de l'ordre françaises et des manifestants tunisiens qui mène à un procès retentissant, un épisode marquant du mouvement national. Cette affaire a pour origine la décision de la municipalité d'immatriculer le cimetière à son nom alors qu'il appartient à l'administration des habous.   
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Djellaz</t>
+          <t>Cimetière_du_Djellaz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,48 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est connu pour abriter un grand nombre de tombes de personnalités tunisiennes, notamment celles liées au mouvement national tunisien regroupées dans le carré des martyrs.
-Personnalités enterrées dans le carré des martyrs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Djellaz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Djellaz</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées dans le carré des martyrs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chokri Belaïd
 Salah Ben Youssef
 Mohamed Brahmi
@@ -527,7 +577,43 @@
 Mongi Slim
 Ahmed Tlili
 Houcine Triki
-Autres personnalités
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Djellaz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Djellaz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ezzeddine Abassi
 Hassan Hosni et Khaled Abdul-Wahab
 Mustapha Adouani
